--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value751.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value751.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9354572492650111</v>
+        <v>0.9864898920059204</v>
       </c>
       <c r="B1">
-        <v>1.999601294926096</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.235924387549435</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.486330332849478</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.287794335867074</v>
+        <v>1.229419589042664</v>
       </c>
     </row>
   </sheetData>
